--- a/xlsx/西夏_intext.xlsx
+++ b/xlsx/西夏_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1059">
   <si>
     <t>西夏</t>
   </si>
@@ -29,7 +29,7 @@
     <t>西夏区</t>
   </si>
   <si>
-    <t>政策_政策_貨幣政策_西夏</t>
+    <t>政策_政策_货币政策_西夏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%90%9B%E4%B8%BB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>中國君主列表</t>
+    <t>中国君主列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E5%85%83%E6%98%8A</t>
@@ -101,39 +101,36 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%BD%89%E5%AF%AB</t>
   </si>
   <si>
-    <t>拉丁轉寫</t>
+    <t>拉丁转写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>中國歷史</t>
+    <t>中国历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%9A%E9%A0%85</t>
   </si>
   <si>
-    <t>党項</t>
+    <t>党项</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%97%8F</t>
   </si>
   <si>
-    <t>漢族</t>
+    <t>汉族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9E%E9%B6%BB</t>
   </si>
   <si>
-    <t>回鶻</t>
+    <t>回鹘</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9E%E9%B9%98</t>
   </si>
   <si>
-    <t>回鹘</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BE%E6%BD%98</t>
   </si>
   <si>
@@ -179,7 +176,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%AD%E5%B7%9E</t>
   </si>
   <si>
-    <t>蘭州</t>
+    <t>兰州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E8%A5%BF%E8%B5%B0%E5%BB%8A</t>
@@ -197,7 +194,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%BC%E5%A4%8F%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>遼夏戰爭</t>
+    <t>辽夏战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%AE%8B</t>
@@ -209,7 +206,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%AB%E5%B1%B1_(%E9%99%9D%E8%A5%BF)</t>
   </si>
   <si>
-    <t>橫山 (陝西)</t>
+    <t>横山 (陕西)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9C%9D</t>
@@ -239,13 +236,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>蒙古帝國</t>
+    <t>蒙古帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%8F%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>蒙夏戰爭</t>
+    <t>蒙夏战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E5%A5%97</t>
@@ -269,7 +266,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD</t>
   </si>
   <si>
-    <t>商業</t>
+    <t>商业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E6%95%99</t>
@@ -287,7 +284,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%84%92%E5%AD%B8</t>
   </si>
   <si>
-    <t>儒學</t>
+    <t>儒学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%90%E8%95%83</t>
@@ -305,13 +302,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%A9%E6%AD%8C</t>
   </si>
   <si>
-    <t>詩歌</t>
+    <t>诗歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BA%E8%AA%9E</t>
   </si>
   <si>
-    <t>諺語</t>
+    <t>谚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E9%AB%98%E7%AA%9F</t>
@@ -329,9 +326,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
   </si>
   <si>
-    <t>中国历史</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%8F%B2%E5%89%8D%E6%96%87%E5%8C%96</t>
   </si>
   <si>
@@ -359,19 +353,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E6%B2%B3%E6%96%87%E6%98%8E</t>
   </si>
   <si>
-    <t>黃河文明</t>
+    <t>黄河文明</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E6%B1%9F%E6%96%87%E6%98%8E</t>
   </si>
   <si>
-    <t>長江文明</t>
+    <t>长江文明</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E9%9D%92%E9%8A%85%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>中國青銅時代</t>
+    <t>中国青铜时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E4%BC%A0%E8%AF%B4%E6%97%B6%E4%BB%A3</t>
@@ -425,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>戰國</t>
+    <t>战国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%A6%E6%9C%9D</t>
@@ -491,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%AB%E5%90%B3_(%E4%B8%89%E5%9C%8B)</t>
   </si>
   <si>
-    <t>孫吳 (三國)</t>
+    <t>孙吴 (三国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%8B%E6%9C%9D</t>
@@ -569,7 +563,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B3_(%E5%8D%97%E6%9C%9D)</t>
   </si>
   <si>
-    <t>陳 (南朝)</t>
+    <t>陈 (南朝)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%91%A8</t>
@@ -629,9 +623,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%B8%9D%E5%9B%BD</t>
   </si>
   <si>
-    <t>蒙古帝国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E6%9C%9D</t>
   </si>
   <si>
@@ -671,19 +662,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B_(%E5%A4%A7%E9%99%B8%E6%99%82%E6%9C%9F)</t>
   </si>
   <si>
-    <t>中華民國 (大陸時期)</t>
+    <t>中华民国 (大陆时期)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
+    <t>中华人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%8F%B2%E5%AD%A6%E5%8F%B2</t>
@@ -737,13 +728,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E7%A7%91%E6%8A%80%E5%8F%B2</t>
   </si>
   <si>
-    <t>中國科技史</t>
+    <t>中国科技史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%B3%95%E5%88%B6%E5%8F%B2</t>
   </si>
   <si>
-    <t>中國法制史</t>
+    <t>中国法制史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E6%96%B0%E9%97%BB%E5%8F%B2</t>
@@ -773,9 +764,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9A%E9%9B%A3%E7%AF%80%E5%BA%A6%E4%BD%BF</t>
   </si>
   <si>
-    <t>定難節度使</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8C%E6%97%8F</t>
   </si>
   <si>
@@ -803,7 +791,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%8F%B2%E4%B9%8B%E4%BA%82</t>
   </si>
   <si>
-    <t>安史之亂</t>
+    <t>安史之乱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E9%AB%98%E5%AE%97</t>
@@ -827,7 +815,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E5%B7%A2%E4%B9%8B%E4%BA%82</t>
   </si>
   <si>
-    <t>黃巢之亂</t>
+    <t>黄巢之乱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E5%83%96%E5%AE%97</t>
@@ -911,7 +899,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%99</t>
   </si>
   <si>
-    <t>趙</t>
+    <t>赵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E7%BB%A7%E9%9A%86</t>
@@ -959,13 +947,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%88%E5%B7%9E</t>
   </si>
   <si>
-    <t>興州</t>
+    <t>兴州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A6%B7%E5%A0%B4</t>
   </si>
   <si>
-    <t>榷場</t>
+    <t>榷场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%98%E5%B7%9E</t>
@@ -977,13 +965,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%98%E5%B7%9E%E5%9B%9E%E9%B6%BB</t>
   </si>
   <si>
-    <t>甘州回鶻</t>
+    <t>甘州回鹘</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B8%E5%BF%A0%E4%BF%9D%E9%A0%86%E5%8F%AF%E6%B1%97</t>
   </si>
   <si>
-    <t>歸忠保順可汗</t>
+    <t>归忠保顺可汗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%98%E9%80%8B%E6%B8%B8%E9%BE%99%E9%92%B5</t>
@@ -1013,7 +1001,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%B9%E8%B3%A2%E9%A0%86</t>
   </si>
   <si>
-    <t>曹賢順</t>
+    <t>曹贤顺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%BA%86_(%E5%A4%8F%E6%99%AF%E5%AE%97)</t>
@@ -1037,19 +1025,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%B7%9D%E5%8F%A3%E4%B9%8B%E6%88%B0</t>
   </si>
   <si>
-    <t>三川口之戰</t>
+    <t>三川口之战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%89%E5%B9%B3</t>
   </si>
   <si>
-    <t>劉平</t>
+    <t>刘平</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E5%85%83%E5%AD%AB</t>
   </si>
   <si>
-    <t>石元孫</t>
+    <t>石元孙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E7%AB%A6</t>
@@ -1079,7 +1067,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E6%B0%B4%E5%B7%9D%E4%B9%8B%E6%88%B0</t>
   </si>
   <si>
-    <t>好水川之戰</t>
+    <t>好水川之战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%88%E6%89%A7%E4%B8%AD</t>
@@ -1091,7 +1079,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B5%E5%85%83</t>
   </si>
   <si>
-    <t>張元</t>
+    <t>张元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E5%85%86%E5%BA%9C</t>
@@ -1103,7 +1091,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9A%E5%B7%9D%E5%AF%A8%E4%B9%8B%E6%88%B0</t>
   </si>
   <si>
-    <t>定川寨之戰</t>
+    <t>定川寨之战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AF%E6%B3%B0_(%E5%AE%8B%E6%9C%9D)</t>
@@ -1115,7 +1103,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%85%B6%E6%9B%86%E5%92%8C%E8%AD%B0</t>
   </si>
   <si>
-    <t>慶曆和議</t>
+    <t>庆历和议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%BD%E5%85%B4%E5%AE%97</t>
@@ -1169,7 +1157,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%92%E8%97%8F%E8%A8%9B%E9%BE%90</t>
   </si>
   <si>
-    <t>沒藏訛龐</t>
+    <t>没藏讹庞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%81%E7%9A%87%E5%90%8E_(%E8%A5%BF%E5%A4%8F%E6%AF%85%E5%AE%97)</t>
@@ -1187,7 +1175,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E5%AE%88%E8%B2%B4</t>
   </si>
   <si>
-    <t>李守貴</t>
+    <t>李守贵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%81%E4%B9%99%E5%9F%8B</t>
@@ -1223,7 +1211,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E6%A8%82%E5%9F%8E%E4%B9%8B%E6%88%B0</t>
   </si>
   <si>
-    <t>永樂城之戰</t>
+    <t>永乐城之战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B5%AC%E5%90%8D%E6%B5%AA%E9%81%87</t>
@@ -1235,7 +1223,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E5%AE%89%E7%9F%B3%E8%AE%8A%E6%B3%95</t>
   </si>
   <si>
-    <t>王安石變法</t>
+    <t>王安石变法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E9%9F%B6</t>
@@ -1259,7 +1247,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E4%B9%BE%E9%A0%86</t>
   </si>
   <si>
-    <t>李乾順</t>
+    <t>李干顺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E5%93%B2%E5%AE%97</t>
@@ -1283,7 +1271,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E5%A4%8F%E5%9F%8E%E4%B9%8B%E6%88%B0</t>
   </si>
   <si>
-    <t>平夏城之戰</t>
+    <t>平夏城之战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%AE%89%E5%B7%9E</t>
@@ -1313,7 +1301,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%A5%E8%B2%AB</t>
   </si>
   <si>
-    <t>童貫</t>
+    <t>童贯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%8D%E5%B8%88%E9%81%93</t>
@@ -1331,7 +1319,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8C%E9%A1%8F%E5%AE%97%E6%9C%9B</t>
   </si>
   <si>
-    <t>完顏宗望</t>
+    <t>完颜宗望</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E5%BE%B7%E5%86%9B</t>
@@ -1361,7 +1349,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E7%B4%94%E7%A5%90</t>
   </si>
   <si>
-    <t>李純祐</t>
+    <t>李纯祐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E4%BB%81%E5%8F%8B</t>
@@ -1433,7 +1421,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E9%81%B5%E9%A0%8A</t>
   </si>
   <si>
-    <t>李遵頊</t>
+    <t>李遵顼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E5%AE%A3%E5%AE%97</t>
@@ -1469,7 +1457,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%80%E8%98%AD%E5%B1%B1</t>
   </si>
   <si>
-    <t>賀蘭山</t>
+    <t>贺兰山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%9F%E7%BD%95</t>
@@ -1493,7 +1481,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B6%BC%E5%B7%9E</t>
   </si>
   <si>
-    <t>涼州</t>
+    <t>凉州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E9%99%80</t>
@@ -1529,7 +1517,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%AF%A7</t>
   </si>
   <si>
-    <t>西寧</t>
+    <t>西宁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AD%E7%9B%98%E5%B1%B1</t>
@@ -1553,13 +1541,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8A%80%E5%B7%9D</t>
   </si>
   <si>
-    <t>銀川</t>
+    <t>银川</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A4%8F%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>西夏行政區劃</t>
+    <t>西夏行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%98%E8%82%83%E7%9C%81</t>
@@ -1655,7 +1643,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%9B%B8</t>
   </si>
   <si>
-    <t>中書</t>
+    <t>中书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%A2%E5%AF%86%E9%99%A2</t>
@@ -1739,7 +1727,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%AA%E4%B8%B9%E7%B8%A3</t>
   </si>
   <si>
-    <t>刪丹縣</t>
+    <t>删丹县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E5%8F%B2</t>
@@ -1751,13 +1739,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E9%83%BD%E4%BA%8B%E7%95%A5</t>
   </si>
   <si>
-    <t>東都事略</t>
+    <t>东都事略</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%8C%E8%B3%87%E6%B2%BB%E9%80%9A%E9%91%91%E9%95%B7%E7%B7%A8</t>
   </si>
   <si>
-    <t>續資治通鑑長編</t>
+    <t>续资治通鑑长编</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E4%BA%BA%E5%8F%A3%E5%8F%B2</t>
@@ -1841,9 +1829,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%89%E5%B7%9E</t>
   </si>
   <si>
-    <t>凉州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%81%E8%BF%9E%E5%B1%B1</t>
   </si>
   <si>
@@ -1859,7 +1844,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E5%AE%9A%E6%B2%B3</t>
   </si>
   <si>
-    <t>無定河</t>
+    <t>无定河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%AE%81%E5%8E%BF</t>
@@ -1901,7 +1886,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>絲路</t>
+    <t>丝路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%9F%9F</t>
@@ -1931,7 +1916,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%9E</t>
   </si>
   <si>
-    <t>北亞</t>
+    <t>北亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%A5%9A%E5%B8%9D</t>
@@ -1973,13 +1958,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%B7%9E</t>
   </si>
   <si>
-    <t>環州</t>
+    <t>环州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8B%9D%E5%B7%9E</t>
   </si>
   <si>
-    <t>東勝州</t>
+    <t>东胜州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%84%82%E6%89%98%E5%85%8B%E6%97%97</t>
@@ -2015,7 +2000,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8E%E5%88%A9%E4%BB%81%E6%A6%AE</t>
   </si>
   <si>
-    <t>野利仁榮</t>
+    <t>野利仁荣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%A1%E9%81%93%E5%86%B2</t>
@@ -2027,7 +2012,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AD%E6%9B%B8</t>
   </si>
   <si>
-    <t>六書</t>
+    <t>六书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%95%AA%E6%B1%89%E5%90%88%E6%97%B6%E6%8E%8C%E4%B8%AD%E7%8F%A0</t>
@@ -2045,7 +2030,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E5%85%89%E6%98%8E%E6%9C%80%E5%8B%9D%E7%8E%8B%E7%B6%93</t>
   </si>
   <si>
-    <t>金光明最勝王經</t>
+    <t>金光明最胜王经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%97%8F%E7%BB%8F</t>
@@ -2069,7 +2054,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%8F%E5%82%B3%E4%BD%9B%E6%95%99</t>
   </si>
   <si>
-    <t>藏傳佛教</t>
+    <t>藏传佛教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E6%9D%BE%E9%92%A6%E5%B7%B4</t>
@@ -2087,7 +2072,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9F%E7%A9%80</t>
   </si>
   <si>
-    <t>辟穀</t>
+    <t>辟谷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AF%E6%95%99</t>
@@ -2099,7 +2084,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99</t>
   </si>
   <si>
-    <t>伊斯蘭教</t>
+    <t>伊斯兰教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E8%B4%A4%E8%8F%A9%E8%90%A8</t>
@@ -2111,13 +2096,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B6%BC%E5%B7%9E%E8%AD%B7%E5%9C%8B%E5%AF%BA%E6%84%9F%E6%87%89%E5%A1%94%E7%A2%91</t>
   </si>
   <si>
-    <t>涼州護國寺感應塔碑</t>
+    <t>凉州护国寺感应塔碑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E9%BE%8D</t>
   </si>
   <si>
-    <t>青龍</t>
+    <t>青龙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E8%99%8E</t>
@@ -2147,19 +2132,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%84%80%E5%A4%A9%E6%9B%86</t>
   </si>
   <si>
-    <t>儀天曆</t>
+    <t>仪天历</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%BB%BE</t>
   </si>
   <si>
-    <t>蘇軾</t>
+    <t>苏轼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%81%E8%A3%9C%E4%B9%8B</t>
   </si>
   <si>
-    <t>晁補之</t>
+    <t>晁补之</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A4%8F%E5%90%9B%E4%B8%BB%E5%88%97%E8%A1%A8</t>
@@ -2213,7 +2198,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E8%AB%92%E7%A5%9A</t>
   </si>
   <si>
-    <t>李諒祚</t>
+    <t>李谅祚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%B6%E5%97%A3%E5%AE%81%E5%9B%BD</t>
@@ -2249,7 +2234,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%BE%E9%81%93</t>
   </si>
   <si>
-    <t>乾道</t>
+    <t>干道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E8%B5%90%E7%A4%BC%E7%9B%9B%E5%9B%BD%E5%BA%86</t>
@@ -2273,7 +2258,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E5%84%80%E6%B2%BB%E5%B9%B3</t>
   </si>
   <si>
-    <t>天儀治平</t>
+    <t>天仪治平</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%A5%90%E6%B0%91%E5%AE%89</t>
@@ -2291,13 +2276,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9E%E8%A7%80</t>
   </si>
   <si>
-    <t>貞觀</t>
+    <t>贞观</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%8D%E5%AF%A7</t>
   </si>
   <si>
-    <t>雍寧</t>
+    <t>雍宁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E5%BE%B7</t>
@@ -2321,19 +2306,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%85%B6</t>
   </si>
   <si>
-    <t>人慶</t>
+    <t>人庆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%BE%E7%A5%90</t>
   </si>
   <si>
-    <t>乾祐</t>
+    <t>干祐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%85%B6</t>
   </si>
   <si>
-    <t>天慶</t>
+    <t>天庆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%94%E5%A4%A9</t>
@@ -2363,7 +2348,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%BE%E5%AE%9A</t>
   </si>
   <si>
-    <t>乾定</t>
+    <t>干定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A4%8F%E7%8E%8B%E9%99%B5</t>
@@ -2387,7 +2372,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%BC%E5%8F%B2</t>
   </si>
   <si>
-    <t>遼史</t>
+    <t>辽史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E5%8F%B2</t>
@@ -2399,7 +2384,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E6%98%A5%E7%9C%9F%E4%BA%BA%E8%A5%BF%E9%81%8A%E8%A8%98</t>
   </si>
   <si>
-    <t>長春真人西遊記</t>
+    <t>长春真人西游记</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E7%A7%98%E5%8F%B2</t>
@@ -2465,19 +2450,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%95%E9%9B%B2%E5%8D%81%E5%85%AD%E5%B7%9E</t>
   </si>
   <si>
-    <t>燕雲十六州</t>
+    <t>燕云十六州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%91%E4%B8%B9%E6%BB%85%E5%BE%8C%E6%99%89%E4%B9%8B%E6%88%B0</t>
   </si>
   <si>
-    <t>契丹滅後晉之戰</t>
+    <t>契丹灭后晋之战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%BA%97%E5%A5%91%E4%B8%B9%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>高麗契丹戰爭</t>
+    <t>高丽契丹战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E8%BE%BD%E6%88%98%E4%BA%89</t>
@@ -2501,19 +2486,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E7%86%99%E5%A2%9E%E5%B9%A3</t>
   </si>
   <si>
-    <t>重熙增幣</t>
+    <t>重熙增币</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%BC%E6%99%AF%E5%AE%97</t>
   </si>
   <si>
-    <t>遼景宗</t>
+    <t>辽景宗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%A4%E6%B2%B3%E4%B9%8B%E4%BA%82</t>
   </si>
   <si>
-    <t>灤河之亂</t>
+    <t>滦河之乱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8C%E9%A2%9C%E9%98%BF%E9%AA%A8%E6%89%93</t>
@@ -2525,13 +2510,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%81%BC</t>
   </si>
   <si>
-    <t>北遼</t>
+    <t>北辽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%BB%85%E9%81%BC%E4%B9%8B%E6%88%B0</t>
   </si>
   <si>
-    <t>金滅遼之戰</t>
+    <t>金灭辽之战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A3%E5%92%8C%E4%BC%90%E8%BE%BD</t>
@@ -2549,7 +2534,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E9%81%BC</t>
   </si>
   <si>
-    <t>後遼</t>
+    <t>后辽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%B7%E5%84%BF%E6%BC%AB%E7%8E%8B%E6%9C%9D</t>
@@ -2561,7 +2546,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%83%E6%A5%B5%E7%83%88</t>
   </si>
   <si>
-    <t>勃極烈</t>
+    <t>勃极烈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%9B%E5%AE%89%E8%B0%8B%E5%85%8B</t>
@@ -2591,7 +2576,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%A5%9A_(%E5%BC%B5%E9%82%A6%E6%98%8C)</t>
   </si>
   <si>
-    <t>大楚 (張邦昌)</t>
+    <t>大楚 (张邦昌)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%98%E9%BD%90</t>
@@ -2609,13 +2594,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%B0%9A%E5%8E%9F%E4%B9%8B%E6%88%B0</t>
   </si>
   <si>
-    <t>和尚原之戰</t>
+    <t>和尚原之战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BE%E5%9F%8E%E4%B9%8B%E6%88%B0</t>
   </si>
   <si>
-    <t>郾城之戰</t>
+    <t>郾城之战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A1%BA%E6%98%8C%E4%B9%8B%E6%88%98</t>
@@ -2627,7 +2612,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B9%E8%88%88%E5%92%8C%E8%AD%B0</t>
   </si>
   <si>
-    <t>紹興和議</t>
+    <t>绍兴和议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E7%86%99%E5%AE%97</t>
@@ -2639,7 +2624,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8C%E9%A1%8F%E4%BA%AE</t>
   </si>
   <si>
-    <t>完顏亮</t>
+    <t>完颜亮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%88%E5%AE%B6%E5%B2%9B%E6%B5%B7%E6%88%98</t>
@@ -2651,7 +2636,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A1%E7%9F%B3%E4%B9%8B%E6%88%B0_(1161%E5%B9%B4)</t>
   </si>
   <si>
-    <t>採石之戰 (1161年)</t>
+    <t>采石之战 (1161年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%98%8C%E4%B9%8B%E6%B2%BB</t>
@@ -2663,7 +2648,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E7%A6%A7%E5%8C%97%E4%BC%90</t>
   </si>
   <si>
-    <t>開禧北伐</t>
+    <t>开禧北伐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%98%89%E5%AE%9A%E5%92%8C%E8%AE%AE</t>
@@ -2681,19 +2666,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E9%87%91%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>蒙金戰爭</t>
+    <t>蒙金战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E8%A5%96%E8%BB%8D%E6%B0%91%E8%AE%8A</t>
   </si>
   <si>
-    <t>紅襖軍民變</t>
+    <t>红袄军民变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%B2%E9%AE%AE%E8%90%AC%E5%A5%B4</t>
   </si>
   <si>
-    <t>蒲鮮萬奴</t>
+    <t>蒲鲜万奴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E5%8C%97%E4%B9%9D%E5%85%AC</t>
@@ -2705,15 +2690,12 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%B3%B0%E5%B1%B1%E4%B9%8B%E6%88%B0</t>
   </si>
   <si>
-    <t>三峰山之戰</t>
+    <t>三峰山之战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E4%B9%90%E5%9F%8E%E4%B9%8B%E6%88%98</t>
   </si>
   <si>
-    <t>永乐城之战</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E8%A5%84%E5%AE%97</t>
   </si>
   <si>
@@ -2723,43 +2705,37 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%AD%B7%E5%8F%B2%E4%BA%8B%E4%BB%B6%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>中國歷史事件列表</t>
+    <t>中国历史事件列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
-    <t>中华人民共和国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E4%BB%A3%E5%8D%81%E5%9C%8B</t>
   </si>
   <si>
-    <t>五代十國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E6%A2%81</t>
   </si>
   <si>
-    <t>後梁</t>
+    <t>后梁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E6%99%89</t>
   </si>
   <si>
-    <t>後晉</t>
+    <t>后晋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E6%BC%A2</t>
   </si>
   <si>
-    <t>後漢</t>
+    <t>后汉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E5%91%A8</t>
   </si>
   <si>
-    <t>後周</t>
+    <t>后周</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BE%E6%BC%A0%E9%83%BD%E7%9D%A3%E5%BA%9C</t>
@@ -2771,9 +2747,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%81%BC</t>
   </si>
   <si>
-    <t>西遼</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E7%9C%9F%E6%97%8F</t>
   </si>
   <si>
@@ -2795,51 +2768,42 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%83%E8%A0%BB</t>
   </si>
   <si>
-    <t>乃蠻</t>
+    <t>乃蛮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%95%B7%E5%92%8C</t>
   </si>
   <si>
-    <t>大長和</t>
+    <t>大长和</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%A4%A9%E8%88%88</t>
   </si>
   <si>
-    <t>大天興</t>
+    <t>大天兴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%BE%A9%E5%AF%A7</t>
   </si>
   <si>
-    <t>大義寧</t>
+    <t>大义宁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%90%86%E5%9C%8B</t>
   </si>
   <si>
-    <t>大理國</t>
+    <t>大理国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E6%A2%81</t>
   </si>
   <si>
-    <t>后梁</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E6%99%8B</t>
   </si>
   <si>
-    <t>后晋</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E5%91%A8</t>
   </si>
   <si>
-    <t>后周</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E8%9C%80</t>
   </si>
   <si>
@@ -2849,7 +2813,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E8%9C%80</t>
   </si>
   <si>
-    <t>後蜀</t>
+    <t>后蜀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%94%90</t>
@@ -2903,13 +2867,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%89_(%E4%BA%94%E4%BB%A3)</t>
   </si>
   <si>
-    <t>晉 (五代)</t>
+    <t>晋 (五代)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%BA%90%E8%BB%8D</t>
   </si>
   <si>
-    <t>清源軍</t>
+    <t>清源军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B2%90</t>
@@ -2927,7 +2891,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E5%BE%B7%E7%AF%80%E5%BA%A6%E4%BD%BF</t>
   </si>
   <si>
-    <t>成德節度使</t>
+    <t>成德节度使</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E5%B9%B3%E8%8A%82%E5%BA%A6%E4%BD%BF</t>
@@ -2963,7 +2927,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E5%BE%9E%E7%9B%8A</t>
   </si>
   <si>
-    <t>李從益</t>
+    <t>李从益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%B4%E6%9B%A6_(%E5%8D%97%E5%AE%8B)</t>
@@ -3017,9 +2981,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E8%BE%BD</t>
   </si>
   <si>
-    <t>后辽</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E8%A5%BF%E8%8A%82%E5%BA%A6%E4%BD%BF</t>
   </si>
   <si>
@@ -3047,7 +3008,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E5%A7%93%E7%83%8F%E5%8F%A4%E6%96%AF</t>
   </si>
   <si>
-    <t>九姓烏古斯</t>
+    <t>九姓乌古斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B7%E7%A3%A8</t>
@@ -3089,19 +3050,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%A4%A9%E5%85%B4</t>
   </si>
   <si>
-    <t>大天兴</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%90%86%E5%9B%BD</t>
   </si>
   <si>
-    <t>大理国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%AD_(%E5%9C%8B%E5%AE%B6)</t>
   </si>
   <si>
-    <t>大中 (國家)</t>
+    <t>大中 (国家)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%86%E6%98%8E%E5%A4%A7%E9%AC%BC%E4%B8%BB</t>
@@ -3197,13 +3152,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%AD%AF%E5%89%8C%E6%80%9D%E6%B0%8F</t>
   </si>
   <si>
-    <t>巴魯剌思氏</t>
+    <t>巴鲁剌思氏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AD%E5%89%8C%E4%BA%A6%E5%85%92</t>
   </si>
   <si>
-    <t>札剌亦兒</t>
+    <t>札剌亦儿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%98%E5%90%89%E5%89%8C</t>
@@ -3215,7 +3170,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%94%91%E5%85%92%E4%B9%9E</t>
   </si>
   <si>
-    <t>蔑兒乞</t>
+    <t>蔑儿乞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%A1%94%E5%84%BF%E9%83%A8</t>
@@ -3225,9 +3180,6 @@
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%83%E8%9B%AE</t>
-  </si>
-  <si>
-    <t>乃蛮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%AA%E5%8F%A4%E9%83%A8</t>
@@ -4132,7 +4084,7 @@
         <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G19" t="n">
         <v>3</v>
@@ -4158,10 +4110,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>4</v>
@@ -4187,10 +4139,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>15</v>
@@ -4216,10 +4168,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -4245,10 +4197,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>7</v>
@@ -4274,10 +4226,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>15</v>
@@ -4303,10 +4255,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>66</v>
@@ -4332,10 +4284,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>16</v>
@@ -4361,10 +4313,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>6</v>
@@ -4390,10 +4342,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>17</v>
@@ -4419,10 +4371,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>5</v>
@@ -4448,10 +4400,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>4</v>
@@ -4477,10 +4429,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>55</v>
@@ -4506,10 +4458,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>18</v>
@@ -4535,10 +4487,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>46</v>
@@ -4564,10 +4516,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>34</v>
@@ -4593,10 +4545,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>3</v>
@@ -4622,10 +4574,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>8</v>
@@ -4651,10 +4603,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>5</v>
@@ -4680,10 +4632,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -4709,10 +4661,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>8</v>
@@ -4738,10 +4690,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -4767,10 +4719,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>7</v>
@@ -4796,10 +4748,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>8</v>
@@ -4825,10 +4777,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>26</v>
@@ -4854,10 +4806,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -4883,10 +4835,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>5</v>
@@ -4912,10 +4864,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>28</v>
@@ -4970,10 +4922,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>18</v>
@@ -4999,10 +4951,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>4</v>
@@ -5028,10 +4980,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>8</v>
@@ -5057,10 +5009,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>7</v>
@@ -5086,10 +5038,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>8</v>
@@ -5115,10 +5067,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="G53" t="n">
         <v>5</v>
@@ -5144,13 +5096,13 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="s">
         <v>4</v>
@@ -5173,10 +5125,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -5202,10 +5154,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -5231,10 +5183,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -5260,13 +5212,13 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="s">
         <v>4</v>
@@ -5289,13 +5241,13 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="s">
         <v>4</v>
@@ -5318,10 +5270,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -5347,10 +5299,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -5376,10 +5328,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -5405,13 +5357,13 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="s">
         <v>4</v>
@@ -5434,13 +5386,13 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="s">
         <v>4</v>
@@ -5463,13 +5415,13 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="s">
         <v>4</v>
@@ -5492,13 +5444,13 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="s">
         <v>4</v>
@@ -5521,13 +5473,13 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="s">
         <v>4</v>
@@ -5550,13 +5502,13 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="s">
         <v>4</v>
@@ -5579,13 +5531,13 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="s">
         <v>4</v>
@@ -5608,13 +5560,13 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="s">
         <v>4</v>
@@ -5637,10 +5589,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -5666,13 +5618,13 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="s">
         <v>4</v>
@@ -5695,13 +5647,13 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="s">
         <v>4</v>
@@ -5724,13 +5676,13 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="s">
         <v>4</v>
@@ -5753,10 +5705,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -5782,13 +5734,13 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" t="s">
         <v>4</v>
@@ -5811,13 +5763,13 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="s">
         <v>4</v>
@@ -5840,13 +5792,13 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="s">
         <v>4</v>
@@ -5869,13 +5821,13 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="s">
         <v>4</v>
@@ -5898,13 +5850,13 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="s">
         <v>4</v>
@@ -5927,13 +5879,13 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="s">
         <v>4</v>
@@ -5956,13 +5908,13 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="s">
         <v>4</v>
@@ -5985,13 +5937,13 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="s">
         <v>4</v>
@@ -6014,13 +5966,13 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="s">
         <v>4</v>
@@ -6043,13 +5995,13 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" t="s">
         <v>4</v>
@@ -6072,13 +6024,13 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="s">
         <v>4</v>
@@ -6101,13 +6053,13 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="s">
         <v>4</v>
@@ -6130,13 +6082,13 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="s">
         <v>4</v>
@@ -6159,13 +6111,13 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="s">
         <v>4</v>
@@ -6188,13 +6140,13 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" t="s">
         <v>4</v>
@@ -6217,13 +6169,13 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="s">
         <v>4</v>
@@ -6246,13 +6198,13 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" t="s">
         <v>4</v>
@@ -6275,13 +6227,13 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="s">
         <v>4</v>
@@ -6304,13 +6256,13 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="s">
         <v>4</v>
@@ -6333,13 +6285,13 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="s">
         <v>4</v>
@@ -6362,13 +6314,13 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="s">
         <v>4</v>
@@ -6391,13 +6343,13 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F97" t="s">
         <v>41</v>
       </c>
-      <c r="F97" t="s">
-        <v>42</v>
-      </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="s">
         <v>4</v>
@@ -6420,10 +6372,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -6449,13 +6401,13 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" t="s">
         <v>4</v>
@@ -6478,13 +6430,13 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="s">
         <v>4</v>
@@ -6507,13 +6459,13 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="s">
         <v>4</v>
@@ -6536,13 +6488,13 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102" t="s">
         <v>4</v>
@@ -6565,13 +6517,13 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>48</v>
+      </c>
+      <c r="F103" t="s">
         <v>49</v>
       </c>
-      <c r="F103" t="s">
-        <v>50</v>
-      </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103" t="s">
         <v>4</v>
@@ -6594,13 +6546,13 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>60</v>
+      </c>
+      <c r="F104" t="s">
         <v>61</v>
       </c>
-      <c r="F104" t="s">
-        <v>62</v>
-      </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104" t="s">
         <v>4</v>
@@ -6623,13 +6575,13 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F105" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105" t="s">
         <v>4</v>
@@ -6652,13 +6604,13 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>64</v>
+      </c>
+      <c r="F106" t="s">
         <v>65</v>
       </c>
-      <c r="F106" t="s">
-        <v>66</v>
-      </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106" t="s">
         <v>4</v>
@@ -6681,10 +6633,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F107" t="s">
-        <v>204</v>
+        <v>73</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -6710,13 +6662,13 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F108" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108" t="s">
         <v>4</v>
@@ -6739,10 +6691,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F109" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -6768,13 +6720,13 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F110" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110" t="s">
         <v>4</v>
@@ -6797,10 +6749,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F111" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -6826,10 +6778,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F112" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6855,13 +6807,13 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F113" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113" t="s">
         <v>4</v>
@@ -6884,13 +6836,13 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F114" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114" t="s">
         <v>4</v>
@@ -6913,13 +6865,13 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F115" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115" t="s">
         <v>4</v>
@@ -6942,13 +6894,13 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F116" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116" t="s">
         <v>4</v>
@@ -6971,10 +6923,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F117" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -7000,10 +6952,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F118" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -7029,10 +6981,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F119" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -7058,10 +7010,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F120" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -7087,10 +7039,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F121" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -7116,10 +7068,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F122" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -7145,10 +7097,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F123" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -7174,10 +7126,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F124" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -7203,10 +7155,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F125" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -7232,10 +7184,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F126" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -7261,10 +7213,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F127" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -7290,10 +7242,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F128" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -7319,10 +7271,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F129" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -7348,10 +7300,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F130" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G130" t="n">
         <v>7</v>
@@ -7406,10 +7358,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>44</v>
+      </c>
+      <c r="F132" t="s">
         <v>45</v>
-      </c>
-      <c r="F132" t="s">
-        <v>46</v>
       </c>
       <c r="G132" t="n">
         <v>6</v>
@@ -7435,10 +7387,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F133" t="s">
-        <v>252</v>
+        <v>198</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -7464,10 +7416,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F134" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -7493,10 +7445,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F135" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -7522,10 +7474,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F136" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G136" t="n">
         <v>5</v>
@@ -7551,10 +7503,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F137" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -7580,10 +7532,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F138" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -7609,10 +7561,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F139" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -7638,10 +7590,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F140" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -7667,10 +7619,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F141" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G141" t="n">
         <v>4</v>
@@ -7696,10 +7648,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F142" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -7725,10 +7677,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F143" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7754,10 +7706,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F144" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G144" t="n">
         <v>106</v>
@@ -7783,10 +7735,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F145" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G145" t="n">
         <v>4</v>
@@ -7812,10 +7764,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F146" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G146" t="n">
         <v>3</v>
@@ -7841,10 +7793,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F147" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G147" t="n">
         <v>4</v>
@@ -7870,10 +7822,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F148" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7899,10 +7851,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F149" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -7928,10 +7880,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F150" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -7957,10 +7909,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F151" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7986,10 +7938,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F152" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -8015,10 +7967,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F153" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G153" t="n">
         <v>3</v>
@@ -8044,10 +7996,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F154" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G154" t="n">
         <v>4</v>
@@ -8073,10 +8025,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F155" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -8102,10 +8054,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F156" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G156" t="n">
         <v>37</v>
@@ -8131,10 +8083,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F157" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -8160,10 +8112,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F158" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G158" t="n">
         <v>3</v>
@@ -8189,10 +8141,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F159" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -8218,10 +8170,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F160" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G160" t="n">
         <v>13</v>
@@ -8247,10 +8199,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F161" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G161" t="n">
         <v>5</v>
@@ -8276,10 +8228,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F162" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -8305,10 +8257,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F163" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G163" t="n">
         <v>11</v>
@@ -8334,10 +8286,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F164" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -8363,10 +8315,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F165" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -8392,10 +8344,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F166" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G166" t="n">
         <v>6</v>
@@ -8421,10 +8373,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F167" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -8450,10 +8402,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F168" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G168" t="n">
         <v>21</v>
@@ -8479,10 +8431,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F169" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G169" t="n">
         <v>3</v>
@@ -8508,10 +8460,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F170" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8537,10 +8489,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F171" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -8566,10 +8518,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F172" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -8595,10 +8547,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F173" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G173" t="n">
         <v>5</v>
@@ -8624,10 +8576,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F174" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G174" t="n">
         <v>2</v>
@@ -8653,10 +8605,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F175" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -8682,10 +8634,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F176" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G176" t="n">
         <v>3</v>
@@ -8740,10 +8692,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F178" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G178" t="n">
         <v>3</v>
@@ -8769,10 +8721,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F179" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8798,10 +8750,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F180" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G180" t="n">
         <v>3</v>
@@ -8827,10 +8779,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F181" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8856,10 +8808,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F182" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8885,10 +8837,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F183" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -8914,10 +8866,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F184" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G184" t="n">
         <v>4</v>
@@ -8943,10 +8895,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F185" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G185" t="n">
         <v>4</v>
@@ -8972,10 +8924,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F186" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -9001,10 +8953,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F187" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G187" t="n">
         <v>4</v>
@@ -9030,10 +8982,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F188" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -9059,10 +9011,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F189" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -9088,10 +9040,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F190" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -9117,10 +9069,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F191" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G191" t="n">
         <v>3</v>
@@ -9146,10 +9098,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F192" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -9175,10 +9127,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F193" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G193" t="n">
         <v>5</v>
@@ -9204,10 +9156,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F194" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G194" t="n">
         <v>3</v>
@@ -9233,10 +9185,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F195" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -9262,10 +9214,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F196" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -9291,10 +9243,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F197" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G197" t="n">
         <v>2</v>
@@ -9320,10 +9272,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F198" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -9349,10 +9301,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F199" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -9378,10 +9330,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F200" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -9407,10 +9359,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F201" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -9436,10 +9388,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F202" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G202" t="n">
         <v>7</v>
@@ -9465,10 +9417,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F203" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -9494,10 +9446,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F204" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -9523,10 +9475,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F205" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -9552,10 +9504,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F206" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
@@ -9581,10 +9533,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F207" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G207" t="n">
         <v>2</v>
@@ -9610,10 +9562,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F208" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G208" t="n">
         <v>3</v>
@@ -9639,10 +9591,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F209" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G209" t="n">
         <v>4</v>
@@ -9668,10 +9620,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F210" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G210" t="n">
         <v>10</v>
@@ -9697,10 +9649,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F211" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G211" t="n">
         <v>14</v>
@@ -9726,10 +9678,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F212" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G212" t="n">
         <v>4</v>
@@ -9755,10 +9707,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F213" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G213" t="n">
         <v>3</v>
@@ -9784,10 +9736,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F214" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G214" t="n">
         <v>19</v>
@@ -9813,10 +9765,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F215" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G215" t="n">
         <v>2</v>
@@ -9842,10 +9794,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F216" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G216" t="n">
         <v>3</v>
@@ -9871,10 +9823,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F217" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9900,10 +9852,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F218" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9929,10 +9881,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F219" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
@@ -9958,10 +9910,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F220" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9987,10 +9939,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F221" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G221" t="n">
         <v>3</v>
@@ -10016,10 +9968,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F222" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G222" t="n">
         <v>21</v>
@@ -10045,10 +9997,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F223" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G223" t="n">
         <v>8</v>
@@ -10074,10 +10026,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F224" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -10103,10 +10055,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F225" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -10132,10 +10084,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F226" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G226" t="n">
         <v>5</v>
@@ -10161,10 +10113,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F227" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -10190,10 +10142,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F228" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G228" t="n">
         <v>3</v>
@@ -10219,10 +10171,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F229" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G229" t="n">
         <v>2</v>
@@ -10248,10 +10200,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F230" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G230" t="n">
         <v>2</v>
@@ -10277,10 +10229,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F231" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G231" t="n">
         <v>6</v>
@@ -10306,10 +10258,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F232" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -10335,10 +10287,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F233" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -10364,10 +10316,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F234" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -10393,10 +10345,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F235" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -10422,10 +10374,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F236" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10451,10 +10403,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F237" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -10480,10 +10432,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F238" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G238" t="n">
         <v>2</v>
@@ -10509,10 +10461,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F239" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G239" t="n">
         <v>10</v>
@@ -10538,10 +10490,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F240" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -10567,10 +10519,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F241" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G241" t="n">
         <v>9</v>
@@ -10596,10 +10548,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F242" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10625,10 +10577,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F243" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10654,10 +10606,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F244" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G244" t="n">
         <v>10</v>
@@ -10683,10 +10635,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
+        <v>74</v>
+      </c>
+      <c r="F245" t="s">
         <v>75</v>
-      </c>
-      <c r="F245" t="s">
-        <v>76</v>
       </c>
       <c r="G245" t="n">
         <v>3</v>
@@ -10712,10 +10664,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F246" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G246" t="n">
         <v>3</v>
@@ -10741,10 +10693,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F247" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10770,10 +10722,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F248" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G248" t="n">
         <v>4</v>
@@ -10799,10 +10751,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F249" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10828,10 +10780,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F250" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10857,10 +10809,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F251" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G251" t="n">
         <v>16</v>
@@ -10886,10 +10838,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F252" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G252" t="n">
         <v>2</v>
@@ -10915,10 +10867,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F253" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10944,10 +10896,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F254" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10973,10 +10925,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F255" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -11002,10 +10954,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F256" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G256" t="n">
         <v>6</v>
@@ -11031,10 +10983,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F257" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -11060,10 +11012,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F258" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G258" t="n">
         <v>7</v>
@@ -11089,10 +11041,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F259" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -11118,10 +11070,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F260" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -11147,10 +11099,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F261" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -11176,10 +11128,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F262" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G262" t="n">
         <v>7</v>
@@ -11205,10 +11157,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F263" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G263" t="n">
         <v>5</v>
@@ -11234,10 +11186,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F264" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G264" t="n">
         <v>4</v>
@@ -11263,10 +11215,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F265" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G265" t="n">
         <v>3</v>
@@ -11292,10 +11244,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F266" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G266" t="n">
         <v>13</v>
@@ -11321,10 +11273,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F267" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -11350,10 +11302,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F268" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -11379,10 +11331,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F269" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -11408,10 +11360,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F270" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -11437,10 +11389,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F271" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -11466,10 +11418,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F272" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G272" t="n">
         <v>4</v>
@@ -11495,10 +11447,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F273" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G273" t="n">
         <v>2</v>
@@ -11524,10 +11476,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F274" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G274" t="n">
         <v>2</v>
@@ -11553,10 +11505,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F275" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G275" t="n">
         <v>10</v>
@@ -11582,10 +11534,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F276" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G276" t="n">
         <v>6</v>
@@ -11611,10 +11563,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F277" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G277" t="n">
         <v>2</v>
@@ -11640,10 +11592,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F278" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G278" t="n">
         <v>2</v>
@@ -11669,10 +11621,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F279" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G279" t="n">
         <v>8</v>
@@ -11698,10 +11650,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F280" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G280" t="n">
         <v>4</v>
@@ -11727,10 +11679,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F281" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G281" t="n">
         <v>3</v>
@@ -11756,10 +11708,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F282" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G282" t="n">
         <v>3</v>
@@ -11785,10 +11737,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F283" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11814,10 +11766,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F284" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11843,10 +11795,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F285" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11872,10 +11824,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F286" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11930,10 +11882,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F288" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11959,10 +11911,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F289" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G289" t="n">
         <v>8</v>
@@ -11988,10 +11940,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F290" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G290" t="n">
         <v>34</v>
@@ -12017,10 +11969,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F291" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G291" t="n">
         <v>4</v>
@@ -12046,10 +11998,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F292" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G292" t="n">
         <v>8</v>
@@ -12075,10 +12027,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F293" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G293" t="n">
         <v>3</v>
@@ -12104,10 +12056,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F294" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -12133,10 +12085,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F295" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -12162,10 +12114,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F296" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -12191,10 +12143,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F297" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -12220,10 +12172,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F298" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -12249,10 +12201,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F299" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -12278,10 +12230,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F300" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12307,10 +12259,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F301" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G301" t="n">
         <v>4</v>
@@ -12336,10 +12288,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
+        <v>74</v>
+      </c>
+      <c r="F302" t="s">
         <v>75</v>
-      </c>
-      <c r="F302" t="s">
-        <v>76</v>
       </c>
       <c r="G302" t="n">
         <v>2</v>
@@ -12365,10 +12317,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F303" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G303" t="n">
         <v>7</v>
@@ -12394,10 +12346,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F304" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G304" t="n">
         <v>2</v>
@@ -12423,10 +12375,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F305" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12452,10 +12404,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F306" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G306" t="n">
         <v>8</v>
@@ -12481,10 +12433,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F307" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G307" t="n">
         <v>2</v>
@@ -12510,10 +12462,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
+        <v>78</v>
+      </c>
+      <c r="F308" t="s">
         <v>79</v>
-      </c>
-      <c r="F308" t="s">
-        <v>80</v>
       </c>
       <c r="G308" t="n">
         <v>5</v>
@@ -12539,10 +12491,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F309" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G309" t="n">
         <v>2</v>
@@ -12568,10 +12520,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F310" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12597,10 +12549,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F311" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12626,10 +12578,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F312" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12655,10 +12607,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F313" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G313" t="n">
         <v>15</v>
@@ -12684,10 +12636,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F314" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12713,10 +12665,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F315" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G315" t="n">
         <v>4</v>
@@ -12742,10 +12694,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F316" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G316" t="n">
         <v>3</v>
@@ -12771,10 +12723,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F317" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G317" t="n">
         <v>9</v>
@@ -12829,10 +12781,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F319" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G319" t="n">
         <v>3</v>
@@ -12858,10 +12810,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F320" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12887,10 +12839,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F321" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G321" t="n">
         <v>2</v>
@@ -12916,10 +12868,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F322" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12945,10 +12897,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F323" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12974,10 +12926,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F324" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G324" t="n">
         <v>2</v>
@@ -13003,10 +12955,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F325" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -13032,10 +12984,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F326" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -13061,10 +13013,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F327" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G327" t="n">
         <v>2</v>
@@ -13090,10 +13042,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F328" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G328" t="n">
         <v>3</v>
@@ -13119,10 +13071,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F329" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -13148,10 +13100,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="F330" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -13177,10 +13129,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F331" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -13206,10 +13158,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F332" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G332" t="n">
         <v>3</v>
@@ -13235,10 +13187,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F333" t="s">
-        <v>608</v>
+        <v>488</v>
       </c>
       <c r="G333" t="n">
         <v>2</v>
@@ -13264,10 +13216,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="F334" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -13293,10 +13245,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="F335" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="G335" t="n">
         <v>13</v>
@@ -13322,10 +13274,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
+        <v>62</v>
+      </c>
+      <c r="F336" t="s">
         <v>63</v>
-      </c>
-      <c r="F336" t="s">
-        <v>64</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -13351,10 +13303,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="F337" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13380,10 +13332,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F338" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13409,10 +13361,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F339" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13438,10 +13390,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="F340" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="G340" t="n">
         <v>3</v>
@@ -13467,10 +13419,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F341" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="G341" t="n">
         <v>3</v>
@@ -13496,10 +13448,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F342" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="G342" t="n">
         <v>6</v>
@@ -13525,10 +13477,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="F343" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13554,10 +13506,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F344" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13583,10 +13535,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="F345" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G345" t="n">
         <v>5</v>
@@ -13612,10 +13564,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="F346" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="G346" t="n">
         <v>9</v>
@@ -13641,10 +13593,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="F347" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13670,10 +13622,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F348" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13699,10 +13651,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F349" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13728,10 +13680,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="F350" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="G350" t="n">
         <v>2</v>
@@ -13757,10 +13709,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F351" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13786,10 +13738,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F352" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13815,10 +13767,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="F353" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="G353" t="n">
         <v>2</v>
@@ -13844,10 +13796,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="F354" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G354" t="n">
         <v>5</v>
@@ -13873,10 +13825,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="F355" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="G355" t="n">
         <v>6</v>
@@ -13902,10 +13854,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F356" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13931,10 +13883,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F357" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13989,10 +13941,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F359" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -14018,10 +13970,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="F360" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -14047,10 +13999,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="F361" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -14076,10 +14028,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F362" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G362" t="n">
         <v>2</v>
@@ -14105,10 +14057,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F363" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G363" t="n">
         <v>2</v>
@@ -14134,10 +14086,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="F364" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -14163,10 +14115,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="F365" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -14192,10 +14144,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="F366" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="G366" t="n">
         <v>5</v>
@@ -14221,10 +14173,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="F367" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="G367" t="n">
         <v>4</v>
@@ -14250,10 +14202,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="F368" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -14279,10 +14231,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="F369" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14308,10 +14260,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="F370" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="G370" t="n">
         <v>2</v>
@@ -14337,10 +14289,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F371" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G371" t="n">
         <v>2</v>
@@ -14366,10 +14318,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
+        <v>38</v>
+      </c>
+      <c r="F372" t="s">
         <v>39</v>
-      </c>
-      <c r="F372" t="s">
-        <v>40</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -14395,10 +14347,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="F373" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -14424,10 +14376,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="F374" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14453,10 +14405,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="F375" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="G375" t="n">
         <v>2</v>
@@ -14482,10 +14434,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="F376" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="G376" t="n">
         <v>6</v>
@@ -14511,10 +14463,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="F377" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G377" t="n">
         <v>6</v>
@@ -14540,10 +14492,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="F378" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="G378" t="n">
         <v>4</v>
@@ -14569,10 +14521,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="F379" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="G379" t="n">
         <v>2</v>
@@ -14598,10 +14550,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="F380" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14627,10 +14579,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="F381" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="G381" t="n">
         <v>2</v>
@@ -14656,10 +14608,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="F382" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="G382" t="n">
         <v>2</v>
@@ -14685,10 +14637,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="F383" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="G383" t="n">
         <v>2</v>
@@ -14714,10 +14666,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="F384" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="G384" t="n">
         <v>4</v>
@@ -14743,10 +14695,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="F385" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14772,10 +14724,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="F386" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14801,10 +14753,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="F387" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="G387" t="n">
         <v>2</v>
@@ -14830,10 +14782,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="F388" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14859,10 +14811,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="F389" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14888,10 +14840,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="F390" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14917,10 +14869,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="F391" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14946,10 +14898,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="F392" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14975,10 +14927,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="F393" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -15004,10 +14956,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="F394" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -15033,10 +14985,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="F395" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -15062,10 +15014,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="F396" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -15091,10 +15043,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="F397" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -15120,10 +15072,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="F398" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -15149,10 +15101,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="F399" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="G399" t="n">
         <v>2</v>
@@ -15178,10 +15130,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="F400" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="G400" t="n">
         <v>3</v>
@@ -15207,10 +15159,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
+        <v>50</v>
+      </c>
+      <c r="F401" t="s">
         <v>51</v>
-      </c>
-      <c r="F401" t="s">
-        <v>52</v>
       </c>
       <c r="G401" t="n">
         <v>3</v>
@@ -15236,10 +15188,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F402" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G402" t="n">
         <v>3</v>
@@ -15265,10 +15217,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="F403" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -15294,10 +15246,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="F404" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -15323,10 +15275,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="F405" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15352,10 +15304,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="F406" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15381,10 +15333,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="F407" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -15410,10 +15362,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="F408" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15439,10 +15391,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="F409" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15468,10 +15420,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="F410" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15497,10 +15449,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="F411" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15526,10 +15478,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F412" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G412" t="n">
         <v>2</v>
@@ -15555,10 +15507,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="F413" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15584,10 +15536,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="F414" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15613,10 +15565,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="F415" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="G415" t="n">
         <v>2</v>
@@ -15642,10 +15594,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="F416" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15671,10 +15623,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F417" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G417" t="n">
         <v>2</v>
@@ -15700,10 +15652,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="F418" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15729,10 +15681,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="F419" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15758,10 +15710,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="F420" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15787,10 +15739,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="F421" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G421" t="n">
         <v>2</v>
@@ -15816,10 +15768,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="F422" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15845,10 +15797,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="F423" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15874,10 +15826,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="F424" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15903,10 +15855,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="F425" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15932,10 +15884,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
+        <v>66</v>
+      </c>
+      <c r="F426" t="s">
         <v>67</v>
-      </c>
-      <c r="F426" t="s">
-        <v>68</v>
       </c>
       <c r="G426" t="n">
         <v>2</v>
@@ -15961,10 +15913,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="F427" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15990,10 +15942,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="F428" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="G428" t="n">
         <v>4</v>
@@ -16019,10 +15971,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F429" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -16048,10 +16000,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="F430" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="G430" t="n">
         <v>2</v>
@@ -16077,10 +16029,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F431" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G431" t="n">
         <v>4</v>
@@ -16106,10 +16058,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="F432" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -16135,10 +16087,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="F433" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -16164,10 +16116,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F434" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -16193,10 +16145,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="F435" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -16222,10 +16174,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="F436" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -16251,10 +16203,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F437" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G437" t="n">
         <v>4</v>
@@ -16280,10 +16232,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F438" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16309,10 +16261,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="F439" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16338,10 +16290,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="F440" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="G440" t="n">
         <v>2</v>
@@ -16367,10 +16319,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="F441" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16396,10 +16348,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="F442" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="G442" t="n">
         <v>3</v>
@@ -16425,10 +16377,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F443" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="G443" t="n">
         <v>7</v>
@@ -16454,10 +16406,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="F444" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16483,10 +16435,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="F445" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16512,10 +16464,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="F446" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16541,10 +16493,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="F447" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16570,10 +16522,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="F448" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16599,10 +16551,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F449" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16628,10 +16580,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="F450" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16657,10 +16609,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F451" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16686,10 +16638,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="F452" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16715,10 +16667,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="F453" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16744,10 +16696,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F454" t="s">
-        <v>204</v>
+        <v>73</v>
       </c>
       <c r="G454" t="n">
         <v>2</v>
@@ -16773,10 +16725,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="F455" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16802,10 +16754,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
+        <v>44</v>
+      </c>
+      <c r="F456" t="s">
         <v>45</v>
-      </c>
-      <c r="F456" t="s">
-        <v>46</v>
       </c>
       <c r="G456" t="n">
         <v>3</v>
@@ -16831,10 +16783,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="F457" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16860,10 +16812,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="F458" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="G458" t="n">
         <v>3</v>
@@ -16889,10 +16841,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="F459" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16918,10 +16870,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="F460" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16947,10 +16899,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="F461" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -16976,10 +16928,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="F462" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -17005,10 +16957,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="F463" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -17034,10 +16986,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F464" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -17063,10 +17015,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="F465" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -17092,10 +17044,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="F466" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -17121,10 +17073,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="F467" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -17150,10 +17102,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="F468" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -17179,10 +17131,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="F469" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="G469" t="n">
         <v>2</v>
@@ -17208,10 +17160,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="F470" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="G470" t="n">
         <v>3</v>
@@ -17237,10 +17189,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="F471" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17266,10 +17218,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="F472" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17295,10 +17247,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F473" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G473" t="n">
         <v>2</v>
@@ -17324,10 +17276,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F474" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17353,10 +17305,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="F475" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17382,10 +17334,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="F476" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17411,10 +17363,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="F477" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17440,10 +17392,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="F478" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17469,10 +17421,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="F479" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17498,10 +17450,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="F480" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17527,10 +17479,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="F481" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17556,10 +17508,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="F482" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17585,10 +17537,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="F483" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="G483" t="n">
         <v>2</v>
@@ -17614,10 +17566,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="F484" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="G484" t="n">
         <v>2</v>
@@ -17643,10 +17595,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="F485" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17672,10 +17624,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="F486" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -17701,10 +17653,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="F487" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17730,10 +17682,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="F488" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17759,10 +17711,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="F489" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -17788,10 +17740,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="F490" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17817,10 +17769,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="F491" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -17846,10 +17798,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="F492" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -17875,10 +17827,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="F493" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -17904,10 +17856,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F494" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -17933,10 +17885,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="F495" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -17962,10 +17914,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="F496" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -17991,10 +17943,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="F497" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -18020,10 +17972,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="F498" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -18049,10 +18001,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="F499" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -18078,10 +18030,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="F500" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -18107,10 +18059,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="F501" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -18136,10 +18088,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="F502" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -18165,10 +18117,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="F503" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18223,10 +18175,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
+        <v>56</v>
+      </c>
+      <c r="F505" t="s">
         <v>57</v>
-      </c>
-      <c r="F505" t="s">
-        <v>58</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18252,10 +18204,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F506" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G506" t="n">
         <v>15</v>
@@ -18281,10 +18233,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F507" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G507" t="n">
         <v>22</v>
@@ -18310,10 +18262,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="F508" t="s">
-        <v>898</v>
+        <v>398</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18339,10 +18291,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="F509" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -18368,10 +18320,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="F510" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="G510" t="n">
         <v>5</v>
@@ -18397,10 +18349,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F511" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G511" t="n">
         <v>3</v>
@@ -18426,10 +18378,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="F512" t="s">
-        <v>904</v>
+        <v>217</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18455,13 +18407,13 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
+        <v>40</v>
+      </c>
+      <c r="F513" t="s">
         <v>41</v>
       </c>
-      <c r="F513" t="s">
-        <v>42</v>
-      </c>
       <c r="G513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H513" t="s">
         <v>4</v>
@@ -18484,13 +18436,13 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F514" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H514" t="s">
         <v>4</v>
@@ -18513,10 +18465,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="F515" t="s">
-        <v>906</v>
+        <v>192</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -18542,10 +18494,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
+        <v>48</v>
+      </c>
+      <c r="F516" t="s">
         <v>49</v>
-      </c>
-      <c r="F516" t="s">
-        <v>50</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -18571,10 +18523,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="F517" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -18600,10 +18552,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="F518" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="G518" t="n">
         <v>2</v>
@@ -18629,10 +18581,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="F519" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="G519" t="n">
         <v>2</v>
@@ -18658,10 +18610,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="F520" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="G520" t="n">
         <v>3</v>
@@ -18687,10 +18639,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F521" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G521" t="n">
         <v>5</v>
@@ -18716,10 +18668,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="F522" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -18745,10 +18697,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="F523" t="s">
-        <v>918</v>
+        <v>196</v>
       </c>
       <c r="G523" t="n">
         <v>2</v>
@@ -18774,10 +18726,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
       <c r="F524" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
       <c r="G524" t="n">
         <v>2</v>
@@ -18803,10 +18755,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
       <c r="F525" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -18832,10 +18784,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="F526" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -18861,10 +18813,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F527" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G527" t="n">
         <v>5</v>
@@ -18890,10 +18842,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="F528" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -18919,10 +18871,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F529" t="s">
-        <v>204</v>
+        <v>73</v>
       </c>
       <c r="G529" t="n">
         <v>2</v>
@@ -18948,10 +18900,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F530" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G530" t="n">
         <v>5</v>
@@ -18977,10 +18929,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="F531" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -19006,10 +18958,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
       <c r="F532" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -19035,10 +18987,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
       <c r="F533" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -19064,10 +19016,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>933</v>
+        <v>924</v>
       </c>
       <c r="F534" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -19093,10 +19045,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
+        <v>40</v>
+      </c>
+      <c r="F535" t="s">
         <v>41</v>
-      </c>
-      <c r="F535" t="s">
-        <v>42</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -19122,10 +19074,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
+        <v>48</v>
+      </c>
+      <c r="F536" t="s">
         <v>49</v>
-      </c>
-      <c r="F536" t="s">
-        <v>50</v>
       </c>
       <c r="G536" t="n">
         <v>254</v>
@@ -19151,10 +19103,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
+        <v>64</v>
+      </c>
+      <c r="F537" t="s">
         <v>65</v>
-      </c>
-      <c r="F537" t="s">
-        <v>66</v>
       </c>
       <c r="G537" t="n">
         <v>128</v>
@@ -19180,10 +19132,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="F538" t="s">
-        <v>936</v>
+        <v>900</v>
       </c>
       <c r="G538" t="n">
         <v>2</v>
@@ -19209,10 +19161,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F539" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19238,10 +19190,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
       <c r="F540" t="s">
-        <v>938</v>
+        <v>902</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -19267,10 +19219,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>939</v>
+        <v>928</v>
       </c>
       <c r="F541" t="s">
-        <v>940</v>
+        <v>906</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -19296,10 +19248,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>941</v>
+        <v>929</v>
       </c>
       <c r="F542" t="s">
-        <v>942</v>
+        <v>930</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19325,10 +19277,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>943</v>
+        <v>931</v>
       </c>
       <c r="F543" t="s">
-        <v>944</v>
+        <v>932</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -19354,10 +19306,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>945</v>
+        <v>933</v>
       </c>
       <c r="F544" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -19383,10 +19335,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>947</v>
+        <v>935</v>
       </c>
       <c r="F545" t="s">
-        <v>948</v>
+        <v>936</v>
       </c>
       <c r="G545" t="n">
         <v>8</v>
@@ -19412,10 +19364,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>949</v>
+        <v>937</v>
       </c>
       <c r="F546" t="s">
-        <v>950</v>
+        <v>938</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -19441,10 +19393,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>951</v>
+        <v>939</v>
       </c>
       <c r="F547" t="s">
-        <v>952</v>
+        <v>940</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -19470,10 +19422,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>953</v>
+        <v>941</v>
       </c>
       <c r="F548" t="s">
-        <v>954</v>
+        <v>942</v>
       </c>
       <c r="G548" t="n">
         <v>7</v>
@@ -19499,10 +19451,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>955</v>
+        <v>943</v>
       </c>
       <c r="F549" t="s">
-        <v>956</v>
+        <v>944</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -19528,10 +19480,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>957</v>
+        <v>945</v>
       </c>
       <c r="F550" t="s">
-        <v>958</v>
+        <v>946</v>
       </c>
       <c r="G550" t="n">
         <v>2</v>
@@ -19557,10 +19509,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F551" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G551" t="n">
         <v>24</v>
@@ -19586,10 +19538,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>959</v>
+        <v>947</v>
       </c>
       <c r="F552" t="s">
-        <v>960</v>
+        <v>948</v>
       </c>
       <c r="G552" t="n">
         <v>4</v>
@@ -19615,10 +19567,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>961</v>
+        <v>949</v>
       </c>
       <c r="F553" t="s">
-        <v>962</v>
+        <v>950</v>
       </c>
       <c r="G553" t="n">
         <v>6</v>
@@ -19644,10 +19596,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>951</v>
+        <v>939</v>
       </c>
       <c r="F554" t="s">
-        <v>952</v>
+        <v>940</v>
       </c>
       <c r="G554" t="n">
         <v>2</v>
@@ -19673,10 +19625,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>963</v>
+        <v>951</v>
       </c>
       <c r="F555" t="s">
-        <v>964</v>
+        <v>952</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -19702,10 +19654,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>965</v>
+        <v>953</v>
       </c>
       <c r="F556" t="s">
-        <v>966</v>
+        <v>954</v>
       </c>
       <c r="G556" t="n">
         <v>1</v>
@@ -19731,10 +19683,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
       <c r="F557" t="s">
-        <v>968</v>
+        <v>956</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -19760,10 +19712,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>969</v>
+        <v>957</v>
       </c>
       <c r="F558" t="s">
-        <v>970</v>
+        <v>958</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -19789,10 +19741,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>971</v>
+        <v>959</v>
       </c>
       <c r="F559" t="s">
-        <v>972</v>
+        <v>960</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -19818,10 +19770,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>973</v>
+        <v>961</v>
       </c>
       <c r="F560" t="s">
-        <v>974</v>
+        <v>962</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -19847,10 +19799,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>975</v>
+        <v>963</v>
       </c>
       <c r="F561" t="s">
-        <v>976</v>
+        <v>964</v>
       </c>
       <c r="G561" t="n">
         <v>6</v>
@@ -19876,10 +19828,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>977</v>
+        <v>965</v>
       </c>
       <c r="F562" t="s">
-        <v>978</v>
+        <v>966</v>
       </c>
       <c r="G562" t="n">
         <v>1</v>
@@ -19905,10 +19857,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>979</v>
+        <v>967</v>
       </c>
       <c r="F563" t="s">
-        <v>980</v>
+        <v>968</v>
       </c>
       <c r="G563" t="n">
         <v>1</v>
@@ -19934,10 +19886,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>981</v>
+        <v>969</v>
       </c>
       <c r="F564" t="s">
-        <v>982</v>
+        <v>970</v>
       </c>
       <c r="G564" t="n">
         <v>39</v>
@@ -19963,10 +19915,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>981</v>
+        <v>969</v>
       </c>
       <c r="F565" t="s">
-        <v>982</v>
+        <v>970</v>
       </c>
       <c r="G565" t="n">
         <v>1</v>
@@ -19992,10 +19944,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>983</v>
+        <v>971</v>
       </c>
       <c r="F566" t="s">
-        <v>984</v>
+        <v>972</v>
       </c>
       <c r="G566" t="n">
         <v>1</v>
@@ -20021,10 +19973,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>985</v>
+        <v>973</v>
       </c>
       <c r="F567" t="s">
-        <v>986</v>
+        <v>974</v>
       </c>
       <c r="G567" t="n">
         <v>3</v>
@@ -20050,10 +20002,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>987</v>
+        <v>975</v>
       </c>
       <c r="F568" t="s">
-        <v>988</v>
+        <v>976</v>
       </c>
       <c r="G568" t="n">
         <v>1</v>
@@ -20079,10 +20031,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>989</v>
+        <v>977</v>
       </c>
       <c r="F569" t="s">
-        <v>990</v>
+        <v>978</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -20108,10 +20060,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>991</v>
+        <v>979</v>
       </c>
       <c r="F570" t="s">
-        <v>992</v>
+        <v>980</v>
       </c>
       <c r="G570" t="n">
         <v>1</v>
@@ -20137,10 +20089,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>993</v>
+        <v>981</v>
       </c>
       <c r="F571" t="s">
-        <v>994</v>
+        <v>982</v>
       </c>
       <c r="G571" t="n">
         <v>1</v>
@@ -20166,10 +20118,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>995</v>
+        <v>983</v>
       </c>
       <c r="F572" t="s">
-        <v>996</v>
+        <v>984</v>
       </c>
       <c r="G572" t="n">
         <v>1</v>
@@ -20195,10 +20147,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>997</v>
+        <v>985</v>
       </c>
       <c r="F573" t="s">
-        <v>998</v>
+        <v>986</v>
       </c>
       <c r="G573" t="n">
         <v>1</v>
@@ -20224,10 +20176,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F574" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="G574" t="n">
         <v>1</v>
@@ -20253,10 +20205,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>999</v>
+        <v>987</v>
       </c>
       <c r="F575" t="s">
-        <v>1000</v>
+        <v>839</v>
       </c>
       <c r="G575" t="n">
         <v>1</v>
@@ -20282,10 +20234,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1001</v>
+        <v>988</v>
       </c>
       <c r="F576" t="s">
-        <v>1002</v>
+        <v>989</v>
       </c>
       <c r="G576" t="n">
         <v>1</v>
@@ -20311,10 +20263,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>1003</v>
+        <v>990</v>
       </c>
       <c r="F577" t="s">
-        <v>1004</v>
+        <v>991</v>
       </c>
       <c r="G577" t="n">
         <v>1</v>
@@ -20340,10 +20292,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1005</v>
+        <v>992</v>
       </c>
       <c r="F578" t="s">
-        <v>1006</v>
+        <v>993</v>
       </c>
       <c r="G578" t="n">
         <v>1</v>
@@ -20369,10 +20321,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1007</v>
+        <v>994</v>
       </c>
       <c r="F579" t="s">
-        <v>1008</v>
+        <v>995</v>
       </c>
       <c r="G579" t="n">
         <v>1</v>
@@ -20398,10 +20350,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>1009</v>
+        <v>996</v>
       </c>
       <c r="F580" t="s">
-        <v>1010</v>
+        <v>997</v>
       </c>
       <c r="G580" t="n">
         <v>1</v>
@@ -20427,10 +20379,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>1011</v>
+        <v>998</v>
       </c>
       <c r="F581" t="s">
-        <v>1012</v>
+        <v>999</v>
       </c>
       <c r="G581" t="n">
         <v>1</v>
@@ -20456,10 +20408,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>1013</v>
+        <v>1000</v>
       </c>
       <c r="F582" t="s">
-        <v>1014</v>
+        <v>1001</v>
       </c>
       <c r="G582" t="n">
         <v>1</v>
@@ -20485,10 +20437,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>1015</v>
+        <v>1002</v>
       </c>
       <c r="F583" t="s">
-        <v>1016</v>
+        <v>1003</v>
       </c>
       <c r="G583" t="n">
         <v>3</v>
@@ -20514,10 +20466,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>1017</v>
+        <v>1004</v>
       </c>
       <c r="F584" t="s">
-        <v>1018</v>
+        <v>1005</v>
       </c>
       <c r="G584" t="n">
         <v>1</v>
@@ -20543,10 +20495,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="F585" t="s">
-        <v>1020</v>
+        <v>1007</v>
       </c>
       <c r="G585" t="n">
         <v>1</v>
@@ -20572,10 +20524,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>1021</v>
+        <v>1008</v>
       </c>
       <c r="F586" t="s">
-        <v>1022</v>
+        <v>1009</v>
       </c>
       <c r="G586" t="n">
         <v>1</v>
@@ -20601,10 +20553,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="F587" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="G587" t="n">
         <v>1</v>
@@ -20630,10 +20582,10 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>1023</v>
+        <v>1010</v>
       </c>
       <c r="F588" t="s">
-        <v>1024</v>
+        <v>921</v>
       </c>
       <c r="G588" t="n">
         <v>1</v>
@@ -20659,10 +20611,10 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
       <c r="F589" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
       <c r="G589" t="n">
         <v>1</v>
@@ -20688,10 +20640,10 @@
         <v>589</v>
       </c>
       <c r="E590" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
       <c r="F590" t="s">
-        <v>1026</v>
+        <v>925</v>
       </c>
       <c r="G590" t="n">
         <v>3</v>
@@ -20717,10 +20669,10 @@
         <v>590</v>
       </c>
       <c r="E591" t="s">
-        <v>1027</v>
+        <v>1012</v>
       </c>
       <c r="F591" t="s">
-        <v>1028</v>
+        <v>1013</v>
       </c>
       <c r="G591" t="n">
         <v>1</v>
@@ -20746,10 +20698,10 @@
         <v>591</v>
       </c>
       <c r="E592" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
       <c r="F592" t="s">
-        <v>1026</v>
+        <v>925</v>
       </c>
       <c r="G592" t="n">
         <v>1</v>
@@ -20775,10 +20727,10 @@
         <v>592</v>
       </c>
       <c r="E593" t="s">
-        <v>1029</v>
+        <v>1014</v>
       </c>
       <c r="F593" t="s">
-        <v>1030</v>
+        <v>1015</v>
       </c>
       <c r="G593" t="n">
         <v>1</v>
@@ -20804,10 +20756,10 @@
         <v>593</v>
       </c>
       <c r="E594" t="s">
-        <v>1031</v>
+        <v>1016</v>
       </c>
       <c r="F594" t="s">
-        <v>1032</v>
+        <v>1017</v>
       </c>
       <c r="G594" t="n">
         <v>1</v>
@@ -20833,10 +20785,10 @@
         <v>594</v>
       </c>
       <c r="E595" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F595" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G595" t="n">
         <v>2</v>
@@ -20862,10 +20814,10 @@
         <v>595</v>
       </c>
       <c r="E596" t="s">
-        <v>1033</v>
+        <v>1018</v>
       </c>
       <c r="F596" t="s">
-        <v>1034</v>
+        <v>1019</v>
       </c>
       <c r="G596" t="n">
         <v>1</v>
@@ -20891,10 +20843,10 @@
         <v>596</v>
       </c>
       <c r="E597" t="s">
-        <v>1035</v>
+        <v>1020</v>
       </c>
       <c r="F597" t="s">
-        <v>1036</v>
+        <v>1021</v>
       </c>
       <c r="G597" t="n">
         <v>1</v>
@@ -20920,10 +20872,10 @@
         <v>597</v>
       </c>
       <c r="E598" t="s">
-        <v>1037</v>
+        <v>1022</v>
       </c>
       <c r="F598" t="s">
-        <v>1038</v>
+        <v>1023</v>
       </c>
       <c r="G598" t="n">
         <v>1</v>
@@ -20949,10 +20901,10 @@
         <v>598</v>
       </c>
       <c r="E599" t="s">
-        <v>1039</v>
+        <v>1024</v>
       </c>
       <c r="F599" t="s">
-        <v>1040</v>
+        <v>1025</v>
       </c>
       <c r="G599" t="n">
         <v>1</v>
@@ -20978,10 +20930,10 @@
         <v>599</v>
       </c>
       <c r="E600" t="s">
-        <v>1041</v>
+        <v>1026</v>
       </c>
       <c r="F600" t="s">
-        <v>1042</v>
+        <v>1027</v>
       </c>
       <c r="G600" t="n">
         <v>1</v>
@@ -21007,10 +20959,10 @@
         <v>600</v>
       </c>
       <c r="E601" t="s">
-        <v>1043</v>
+        <v>1028</v>
       </c>
       <c r="F601" t="s">
-        <v>1044</v>
+        <v>1029</v>
       </c>
       <c r="G601" t="n">
         <v>1</v>
@@ -21036,10 +20988,10 @@
         <v>601</v>
       </c>
       <c r="E602" t="s">
-        <v>1045</v>
+        <v>1030</v>
       </c>
       <c r="F602" t="s">
-        <v>1046</v>
+        <v>1031</v>
       </c>
       <c r="G602" t="n">
         <v>1</v>
@@ -21065,10 +21017,10 @@
         <v>602</v>
       </c>
       <c r="E603" t="s">
-        <v>1047</v>
+        <v>1032</v>
       </c>
       <c r="F603" t="s">
-        <v>1048</v>
+        <v>1033</v>
       </c>
       <c r="G603" t="n">
         <v>1</v>
@@ -21094,10 +21046,10 @@
         <v>603</v>
       </c>
       <c r="E604" t="s">
-        <v>1049</v>
+        <v>1034</v>
       </c>
       <c r="F604" t="s">
-        <v>1050</v>
+        <v>1035</v>
       </c>
       <c r="G604" t="n">
         <v>1</v>
@@ -21123,10 +21075,10 @@
         <v>604</v>
       </c>
       <c r="E605" t="s">
-        <v>1051</v>
+        <v>1036</v>
       </c>
       <c r="F605" t="s">
-        <v>1052</v>
+        <v>1037</v>
       </c>
       <c r="G605" t="n">
         <v>1</v>
@@ -21152,10 +21104,10 @@
         <v>605</v>
       </c>
       <c r="E606" t="s">
-        <v>1053</v>
+        <v>1038</v>
       </c>
       <c r="F606" t="s">
-        <v>1054</v>
+        <v>1039</v>
       </c>
       <c r="G606" t="n">
         <v>1</v>
@@ -21181,10 +21133,10 @@
         <v>606</v>
       </c>
       <c r="E607" t="s">
-        <v>1055</v>
+        <v>1040</v>
       </c>
       <c r="F607" t="s">
-        <v>1056</v>
+        <v>1041</v>
       </c>
       <c r="G607" t="n">
         <v>1</v>
@@ -21210,10 +21162,10 @@
         <v>607</v>
       </c>
       <c r="E608" t="s">
-        <v>1057</v>
+        <v>1042</v>
       </c>
       <c r="F608" t="s">
-        <v>1058</v>
+        <v>1043</v>
       </c>
       <c r="G608" t="n">
         <v>1</v>
@@ -21239,10 +21191,10 @@
         <v>608</v>
       </c>
       <c r="E609" t="s">
-        <v>1059</v>
+        <v>1044</v>
       </c>
       <c r="F609" t="s">
-        <v>1060</v>
+        <v>1045</v>
       </c>
       <c r="G609" t="n">
         <v>1</v>
@@ -21268,10 +21220,10 @@
         <v>609</v>
       </c>
       <c r="E610" t="s">
-        <v>1061</v>
+        <v>1046</v>
       </c>
       <c r="F610" t="s">
-        <v>1062</v>
+        <v>1047</v>
       </c>
       <c r="G610" t="n">
         <v>1</v>
@@ -21297,10 +21249,10 @@
         <v>610</v>
       </c>
       <c r="E611" t="s">
-        <v>1063</v>
+        <v>1048</v>
       </c>
       <c r="F611" t="s">
-        <v>1064</v>
+        <v>1049</v>
       </c>
       <c r="G611" t="n">
         <v>1</v>
@@ -21326,10 +21278,10 @@
         <v>611</v>
       </c>
       <c r="E612" t="s">
-        <v>1065</v>
+        <v>1050</v>
       </c>
       <c r="F612" t="s">
-        <v>1066</v>
+        <v>1051</v>
       </c>
       <c r="G612" t="n">
         <v>1</v>
@@ -21355,10 +21307,10 @@
         <v>612</v>
       </c>
       <c r="E613" t="s">
-        <v>1067</v>
+        <v>1052</v>
       </c>
       <c r="F613" t="s">
-        <v>1068</v>
+        <v>1053</v>
       </c>
       <c r="G613" t="n">
         <v>1</v>
@@ -21384,10 +21336,10 @@
         <v>613</v>
       </c>
       <c r="E614" t="s">
-        <v>1069</v>
+        <v>1054</v>
       </c>
       <c r="F614" t="s">
-        <v>1070</v>
+        <v>917</v>
       </c>
       <c r="G614" t="n">
         <v>1</v>
@@ -21413,10 +21365,10 @@
         <v>614</v>
       </c>
       <c r="E615" t="s">
-        <v>1071</v>
+        <v>1055</v>
       </c>
       <c r="F615" t="s">
-        <v>1072</v>
+        <v>1056</v>
       </c>
       <c r="G615" t="n">
         <v>1</v>
@@ -21442,10 +21394,10 @@
         <v>615</v>
       </c>
       <c r="E616" t="s">
-        <v>1073</v>
+        <v>1057</v>
       </c>
       <c r="F616" t="s">
-        <v>1074</v>
+        <v>1058</v>
       </c>
       <c r="G616" t="n">
         <v>1</v>
